--- a/neutralization_assays/data/neut_plate_reader_data/WHOVic11_NeutralizationAssay.xlsx
+++ b/neutralization_assays/data/neut_plate_reader_data/WHOVic11_NeutralizationAssay.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40120" yWindow="6200" windowWidth="26840" windowHeight="11560" activeTab="4"/>
+    <workbookView xWindow="33920" yWindow="460" windowWidth="27100" windowHeight="17040" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -586,12 +586,6 @@
     <t>ms</t>
   </si>
   <si>
-    <t>Part of Plate</t>
-  </si>
-  <si>
-    <t>B1-G12</t>
-  </si>
-  <si>
     <t>Start Time:</t>
   </si>
   <si>
@@ -668,6 +662,12 @@
   </si>
   <si>
     <t>4/26/2019 10:10:37 AM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1298,67 +1300,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>40</v>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>9695</v>
@@ -1399,7 +1398,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>24352</v>
@@ -1440,7 +1439,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>25965</v>
@@ -1481,7 +1480,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>25806</v>
@@ -1522,7 +1521,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>27964</v>
@@ -1563,7 +1562,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>29042</v>
@@ -1602,12 +1601,17 @@
         <v>27725</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1620,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1663,7 +1667,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1827,67 +1831,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>52</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>8114</v>
@@ -1928,7 +1929,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>21407</v>
@@ -1969,7 +1970,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>24487</v>
@@ -2010,7 +2011,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>22668</v>
@@ -2051,7 +2052,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>24916</v>
@@ -2092,7 +2093,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>24879</v>
@@ -2131,12 +2132,17 @@
         <v>29152</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2149,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2192,7 +2198,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2356,67 +2362,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>52</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>6415</v>
@@ -2457,7 +2460,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>23449</v>
@@ -2498,7 +2501,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>24105</v>
@@ -2539,7 +2542,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>24289</v>
@@ -2580,7 +2583,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>24112</v>
@@ -2621,7 +2624,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>25468</v>
@@ -2660,12 +2663,17 @@
         <v>26980</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2678,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2721,7 +2729,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2885,67 +2893,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>58</v>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>52</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>6208</v>
@@ -2986,7 +2991,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>25082</v>
@@ -3027,7 +3032,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>22272</v>
@@ -3068,7 +3073,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>22024</v>
@@ -3109,7 +3114,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>22152</v>
@@ -3150,7 +3155,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>20537</v>
@@ -3189,12 +3194,17 @@
         <v>25581</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3208,7 +3218,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3250,7 +3260,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3414,67 +3424,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>61</v>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>62</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>9735</v>
@@ -3515,7 +3522,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>35063</v>
@@ -3556,7 +3563,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>31460</v>
@@ -3597,7 +3604,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>26448</v>
@@ -3638,7 +3645,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>27418</v>
@@ -3679,7 +3686,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>27057</v>
@@ -3718,12 +3725,17 @@
         <v>30713</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
